--- a/RPGGame/RPGGame/proto/xls/map.xlsx
+++ b/RPGGame/RPGGame/proto/xls/map.xlsx
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62">
   <si>
     <t>CS</t>
   </si>
@@ -191,6 +191,9 @@
     <t>defance</t>
   </si>
   <si>
+    <t>名字</t>
+  </si>
+  <si>
     <t>生命上限</t>
   </si>
   <si>
@@ -241,10 +244,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -256,10 +259,55 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -278,30 +326,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -314,9 +340,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -339,46 +381,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -420,13 +423,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -444,7 +459,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -462,25 +483,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -498,13 +501,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -516,31 +525,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -564,25 +567,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -594,13 +603,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -629,6 +632,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -653,15 +680,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -677,17 +695,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -703,15 +715,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -734,10 +737,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -746,76 +749,76 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -824,55 +827,55 @@
     <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1260,7 +1263,7 @@
   <dimension ref="A1:XEW29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -17750,14 +17753,14 @@
       <c r="R4"/>
       <c r="S4"/>
     </row>
-    <row r="5" s="2" customFormat="1" spans="1:3">
-      <c r="A5" s="2" t="s">
+    <row r="5" customFormat="1" spans="1:3">
+      <c r="A5" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" t="s">
         <v>10</v>
       </c>
     </row>
@@ -17877,7 +17880,7 @@
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -18197,7 +18200,7 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q15" sqref="Q15"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -18314,19 +18317,19 @@
         <v>24</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>25</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H5" s="6" t="s">
         <v>31</v>
@@ -18340,10 +18343,10 @@
         <v>1</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E6">
         <v>50</v>
@@ -18366,10 +18369,10 @@
         <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E7">
         <v>100</v>
@@ -18392,10 +18395,10 @@
         <v>3</v>
       </c>
       <c r="C8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E8">
         <v>100</v>
@@ -18418,10 +18421,10 @@
         <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D9" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E9">
         <v>300</v>
@@ -18467,7 +18470,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -18510,10 +18513,10 @@
         <v>5</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -18521,10 +18524,10 @@
         <v>8</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:3">

--- a/RPGGame/RPGGame/proto/xls/map.xlsx
+++ b/RPGGame/RPGGame/proto/xls/map.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28080" windowHeight="13050"/>
+    <workbookView windowWidth="28080" windowHeight="13050" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="MAP" sheetId="1" r:id="rId1"/>
-    <sheet name="MAPACTION" sheetId="4" r:id="rId2"/>
-    <sheet name="MONSTER" sheetId="2" r:id="rId3"/>
-    <sheet name="DROP" sheetId="3" r:id="rId4"/>
+    <sheet name="MapConfig" sheetId="1" r:id="rId1"/>
+    <sheet name="MapActionConfig" sheetId="4" r:id="rId2"/>
+    <sheet name="MonsterConfig" sheetId="2" r:id="rId3"/>
+    <sheet name="DropConfig" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
@@ -68,13 +68,13 @@
     <t>string</t>
   </si>
   <si>
-    <t>id</t>
+    <t>ID</t>
   </si>
   <si>
-    <t>name</t>
+    <t>Name</t>
   </si>
   <si>
-    <t>action_id</t>
+    <t>ActionID</t>
   </si>
   <si>
     <t>编号</t>
@@ -101,28 +101,28 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>type</t>
+    <t>Type</t>
   </si>
   <si>
-    <t>description</t>
+    <t>Description</t>
   </si>
   <si>
-    <t>power_cost</t>
+    <t>PowerCost</t>
   </si>
   <si>
-    <t>time_cost</t>
+    <t>TimeCost</t>
   </si>
   <si>
-    <t>maxtime</t>
+    <t>MaxTime</t>
   </si>
   <si>
-    <t>recovery</t>
+    <t>Recovery</t>
   </si>
   <si>
-    <t>monster_id</t>
+    <t>MonsterID</t>
   </si>
   <si>
-    <t>drop_id</t>
+    <t>DropID</t>
   </si>
   <si>
     <t>类型</t>
@@ -182,13 +182,13 @@
     <t>1;2;3;4</t>
   </si>
   <si>
-    <t>maxhp</t>
+    <t>MaxHp</t>
   </si>
   <si>
-    <t>attack</t>
+    <t>Attack</t>
   </si>
   <si>
-    <t>defance</t>
+    <t>Defance</t>
   </si>
   <si>
     <t>名字</t>
@@ -227,10 +227,10 @@
     <t>猪可比你强得多</t>
   </si>
   <si>
-    <t>item_id</t>
+    <t>ItemID</t>
   </si>
   <si>
-    <t>item_num</t>
+    <t>ItemNum</t>
   </si>
   <si>
     <t>物品编号</t>
@@ -1262,8 +1262,8 @@
   <sheetPr/>
   <dimension ref="A1:XEW29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -17880,7 +17880,7 @@
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H33" sqref="H33"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -18200,7 +18200,7 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -18469,8 +18469,8 @@
   <sheetPr/>
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
